--- a/plan_data.xlsx
+++ b/plan_data.xlsx
@@ -12,6 +12,7 @@
     <sheet name="constr" sheetId="11" r:id="rId3"/>
     <sheet name="results" sheetId="7" r:id="rId4"/>
     <sheet name="tasks (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="downtime" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Id_product</t>
   </si>
@@ -100,49 +101,13 @@
     <t>J10</t>
   </si>
   <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>J16</t>
-  </si>
-  <si>
-    <t>J17</t>
-  </si>
-  <si>
-    <t>J18</t>
-  </si>
-  <si>
-    <t>J19</t>
-  </si>
-  <si>
-    <t>J20</t>
-  </si>
-  <si>
-    <t>J21</t>
-  </si>
-  <si>
-    <t>J22</t>
-  </si>
-  <si>
-    <t>J23</t>
-  </si>
-  <si>
-    <t>J24</t>
-  </si>
-  <si>
-    <t>J25</t>
+    <t>dt_start</t>
+  </si>
+  <si>
+    <t>dt_end</t>
+  </si>
+  <si>
+    <t>Downtime</t>
   </si>
 </sst>
 </file>
@@ -503,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,167 +599,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -804,10 +615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,46 +629,6 @@
       </c>
       <c r="B1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +676,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,4 +731,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>